--- a/case.xlsx
+++ b/case.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10000443\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="150" windowWidth="16155" windowHeight="7965"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -30,10 +35,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>张宁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -50,103 +51,58 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>WebZ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0.0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目版本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>smoke test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZMAN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开网页|www.baidu.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写|css@@#kw@@自动化测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击|css@@#su</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>截图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程表页面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程表页面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户_群日程表_选择一条事项_删除_确认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户_群日程表_点击“新建事项”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程表_点击事项标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WebZ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开网页|www.baidu.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证|css@@#su</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">刷新          </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开网页|www.yiban.cn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击|css@@body &gt; div.m_head_outer &gt; div.headInside &gt; ul.topnav.right.m_head_logrig &gt; li:nth-child(1) &gt; a &gt; u</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写|css@@body &gt; div &gt; div.reg_con &gt; div.login_m &gt; div.login_ml &gt; div &gt; div:nth-child(2) &gt; input@@ztest1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写|css@@#password@@123456</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击|css@@body &gt; div &gt; div.reg_con &gt; div.login_m &gt; div.login_ml &gt; div &gt; div:nth-child(6) &gt; a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写|css@@#kw@@自动化测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写|css@@#kw@@测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击|xpath@@//*[@id="su"]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击|css@@#result_logo &gt; img</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击文字|了解新版</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写|css@@#kw@@第二次输入</t>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击文字链接、跳转</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -154,43 +110,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>验证|xpath@@//*[@id="main"]/div[2]/span</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证|url@@www.yiban.cn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户_我的日程表_选择一条事项_删除_确认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.0.0.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目版本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证|url@@www.yiban.cn/index/id=1234dddddddddddddddddddddddddddddddddddeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeffffffffffffffffffffffffffff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>前往|www.yiban.cn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>截图</t>
+    <t>验证|url@@home.baidu.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击文字|百度公益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换窗口|最新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证|url@@gongyi.baidu.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -343,7 +275,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -379,6 +311,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -403,6 +338,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -411,54 +349,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="yiban_logo.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst/>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="209550" y="142875"/>
-          <a:ext cx="1333500" cy="561975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1323975</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -529,7 +427,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -571,7 +469,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -606,7 +504,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -815,38 +713,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="13.375" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="12.875" customWidth="1"/>
-    <col min="9" max="9" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" customWidth="1"/>
     <col min="10" max="10" width="14.875" customWidth="1"/>
     <col min="13" max="13" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:14" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:14" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:28" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:28" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>1</v>
@@ -855,284 +753,174 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+    </row>
+    <row r="10" spans="1:28" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="C10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-    </row>
-    <row r="11" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-    </row>
-    <row r="12" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="I10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-    </row>
-    <row r="13" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-    </row>
-    <row r="14" spans="1:14" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:28" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:28" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:28" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:28" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:28" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:28" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="2:2" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="2:2" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="2:2" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:2" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:2" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:2" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:2" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:2" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:2" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="2:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="2:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="2:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="2:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="2:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B37" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1140,10 +928,7 @@
     <cfRule type="aboveAverage" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A9:A12" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
